--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{A9F59017-67A7-40DD-B5D3-2DC4A9FE479E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anvesh.durgam\git\AutoPractice\src\main\java\com\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4E7271E7-E7E1-430B-88BC-D5554D76888A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="5805" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="signup" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -447,7 +451,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anvesh.durgam\git\AutoPractice\src\main\java\com\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4E7271E7-E7E1-430B-88BC-D5554D76888A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{DFB0EBA0-9DDE-4350-B48A-7250C0F4223F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16110" windowHeight="5805" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16515" windowHeight="5805" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Firstname</t>
   </si>
@@ -76,6 +72,45 @@
   </si>
   <si>
     <t>ap8</t>
+  </si>
+  <si>
+    <t>ap2@g.com</t>
+  </si>
+  <si>
+    <t>ap3@g.com</t>
+  </si>
+  <si>
+    <t>ap4@g.com</t>
+  </si>
+  <si>
+    <t>ap5@g.com</t>
+  </si>
+  <si>
+    <t>ap6@g.com</t>
+  </si>
+  <si>
+    <t>ap7@g.com</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>aP1</t>
   </si>
 </sst>
 </file>
@@ -451,7 +486,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -516,38 +551,117 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>125</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{4729D68A-8212-4ED2-B226-97EB3107B001}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{B3761546-CC13-4A30-8172-0ECD7E797555}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{03876B13-540F-45A7-B448-50E8F30F4252}"/>
+    <hyperlink ref="C5:C9" r:id="rId4" display="ap2@g.com" xr:uid="{171BF073-7C52-472E-A2B8-053FB96FC368}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{9DB63C43-A3DC-4418-82F1-D012FF033272}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{D8B5B7DB-5293-42D9-9D1E-215D3794E5D9}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{FC63B450-9273-4942-B1D3-533FF79CB8EE}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{5D2064C0-B18F-4B90-835E-D766BCAFBB69}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{A8E46650-EA38-44F8-9918-71A035D518AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{DFB0EBA0-9DDE-4350-B48A-7250C0F4223F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anvesh.durgam\git\AutoPractice\src\main\java\com\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4459CE1C-6550-4C34-8F7F-B5E481AF5B4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16515" windowHeight="5805" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="signup" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -486,7 +490,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anvesh.durgam\git\AutoPractice\src\main\java\com\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4459CE1C-6550-4C34-8F7F-B5E481AF5B4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{4812226B-C8F1-4011-9601-0A777C049F4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16515" windowHeight="5805" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
@@ -16,6 +11,7 @@
     <sheet name="signup" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Firstname</t>
   </si>
@@ -33,27 +29,18 @@
     <t>email</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>ap1</t>
   </si>
   <si>
     <t>ap@g.com</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>ap2</t>
   </si>
   <si>
     <t>ap1@g.com</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lastname </t>
   </si>
   <si>
@@ -94,24 +81,6 @@
   </si>
   <si>
     <t>ap7@g.com</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
   </si>
   <si>
     <t>aP1</t>
@@ -490,7 +459,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,152 +474,126 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="3">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
         <v>124</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3">
         <v>125</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
         <v>126</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>127</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
         <v>128</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3">
         <v>129</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3">
         <v>130</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{4812226B-C8F1-4011-9601-0A777C049F4A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{D6D3D6FD-EA26-42FA-9E9D-70C62DA95520}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16515" windowHeight="5805" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Firstname</t>
   </si>
@@ -84,6 +84,30 @@
   </si>
   <si>
     <t>aP1</t>
+  </si>
+  <si>
+    <t>123-1</t>
+  </si>
+  <si>
+    <t>124-2</t>
+  </si>
+  <si>
+    <t>125-3</t>
+  </si>
+  <si>
+    <t>126-4</t>
+  </si>
+  <si>
+    <t>127-5</t>
+  </si>
+  <si>
+    <t>128-6</t>
+  </si>
+  <si>
+    <t>129-7</t>
+  </si>
+  <si>
+    <t>130-8</t>
   </si>
 </sst>
 </file>
@@ -459,7 +483,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,8 +518,8 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
-        <v>123</v>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,8 +532,8 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
-        <v>124</v>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -522,8 +546,8 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3">
-        <v>125</v>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,8 +560,8 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3">
-        <v>126</v>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,8 +574,8 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3">
-        <v>127</v>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,8 +588,8 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3">
-        <v>128</v>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,8 +602,8 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
-        <v>129</v>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -592,8 +616,8 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3">
-        <v>130</v>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{D6D3D6FD-EA26-42FA-9E9D-70C62DA95520}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{29F50884-B0C6-437B-B519-84E93D7F6DFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16515" windowHeight="5805" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="5895" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Firstname</t>
   </si>
@@ -84,30 +84,6 @@
   </si>
   <si>
     <t>aP1</t>
-  </si>
-  <si>
-    <t>123-1</t>
-  </si>
-  <si>
-    <t>124-2</t>
-  </si>
-  <si>
-    <t>125-3</t>
-  </si>
-  <si>
-    <t>126-4</t>
-  </si>
-  <si>
-    <t>127-5</t>
-  </si>
-  <si>
-    <t>128-6</t>
-  </si>
-  <si>
-    <t>129-7</t>
-  </si>
-  <si>
-    <t>130-8</t>
   </si>
 </sst>
 </file>
@@ -483,7 +459,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,8 +494,8 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
+      <c r="D2" s="3">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -532,8 +508,8 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
+      <c r="D3" s="3">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,8 +522,8 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
+      <c r="D4" s="3">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,8 +536,8 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
+      <c r="D5" s="3">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -574,8 +550,8 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
+      <c r="D6" s="3">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,8 +564,8 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
+      <c r="D7" s="3">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,8 +578,8 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
+      <c r="D8" s="3">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,8 +592,8 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
+      <c r="D9" s="3">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{29F50884-B0C6-437B-B519-84E93D7F6DFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{3ACF4F4D-249B-42AD-9B05-BA497C08A448}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="5895" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="5895" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Firstname</t>
   </si>
@@ -29,9 +29,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>ap1</t>
-  </si>
-  <si>
     <t>ap@g.com</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>aP1</t>
+  </si>
+  <si>
+    <t>394-357</t>
+  </si>
+  <si>
+    <t>319-86</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,25 +477,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D2" s="3">
         <v>123</v>
@@ -500,13 +503,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="3">
         <v>124</v>
@@ -514,13 +517,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3">
         <v>125</v>
@@ -528,13 +531,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3">
         <v>126</v>
@@ -542,13 +545,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>127</v>
@@ -556,13 +559,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
         <v>128</v>
@@ -570,13 +573,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
         <v>129</v>
@@ -584,13 +587,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>130</v>

--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{3ACF4F4D-249B-42AD-9B05-BA497C08A448}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{75C84E99-8238-4D38-9216-C6474A05A357}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="5895" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Firstname</t>
   </si>
@@ -83,10 +83,25 @@
     <t>aP1</t>
   </si>
   <si>
-    <t>394-357</t>
-  </si>
-  <si>
-    <t>319-86</t>
+    <t>323-179</t>
+  </si>
+  <si>
+    <t>102-769-901</t>
+  </si>
+  <si>
+    <t>159-21</t>
+  </si>
+  <si>
+    <t>430-1247</t>
+  </si>
+  <si>
+    <t>55-16</t>
+  </si>
+  <si>
+    <t>143-1027</t>
+  </si>
+  <si>
+    <t>454-63</t>
   </si>
 </sst>
 </file>
@@ -462,12 +477,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -517,7 +533,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -531,7 +547,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -545,7 +561,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -559,7 +575,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -573,7 +589,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -586,9 +602,6 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>

--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{75C84E99-8238-4D38-9216-C6474A05A357}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{8B61AB97-C59F-4A75-BB03-57A910EDBB6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16155" windowHeight="5895" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="5895" activeTab="1" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="signup" sheetId="1" r:id="rId1"/>
+    <sheet name="spark0" sheetId="1" r:id="rId1"/>
+    <sheet name="spark" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P17"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,94 +22,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>ap@g.com</t>
-  </si>
-  <si>
-    <t>ap2</t>
-  </si>
-  <si>
-    <t>ap1@g.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lastname </t>
-  </si>
-  <si>
-    <t>evening phone</t>
-  </si>
-  <si>
-    <t>ap3</t>
-  </si>
-  <si>
-    <t>ap4</t>
-  </si>
-  <si>
-    <t>ap5</t>
-  </si>
-  <si>
-    <t>ap6</t>
-  </si>
-  <si>
-    <t>ap7</t>
-  </si>
-  <si>
-    <t>ap8</t>
-  </si>
-  <si>
-    <t>ap2@g.com</t>
-  </si>
-  <si>
-    <t>ap3@g.com</t>
-  </si>
-  <si>
-    <t>ap4@g.com</t>
-  </si>
-  <si>
-    <t>ap5@g.com</t>
-  </si>
-  <si>
-    <t>ap6@g.com</t>
-  </si>
-  <si>
-    <t>ap7@g.com</t>
-  </si>
-  <si>
-    <t>aP1</t>
-  </si>
-  <si>
-    <t>323-179</t>
-  </si>
-  <si>
-    <t>102-769-901</t>
-  </si>
-  <si>
-    <t>159-21</t>
-  </si>
-  <si>
-    <t>430-1247</t>
-  </si>
-  <si>
-    <t>55-16</t>
-  </si>
-  <si>
-    <t>143-1027</t>
-  </si>
-  <si>
-    <t>454-63</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>AP106-15</t>
+  </si>
+  <si>
+    <t>AP394-357</t>
+  </si>
+  <si>
+    <t>AP319-86</t>
+  </si>
+  <si>
+    <t>AP266-3333</t>
+  </si>
+  <si>
+    <t>AP266-3339</t>
+  </si>
+  <si>
+    <t>AP268-125</t>
+  </si>
+  <si>
+    <t>AP270-470</t>
+  </si>
+  <si>
+    <t>Mobile responsive is visible for AP266-3333true</t>
+  </si>
+  <si>
+    <t>Mobile responsive is visible for AP268-125true</t>
+  </si>
+  <si>
+    <t>Mobile responsive is visible for AP266-3339true</t>
+  </si>
+  <si>
+    <t>Mobile responsive is visible for AP266-3339false</t>
+  </si>
+  <si>
+    <t>Packages and Text_Reminder is not EnabledAP266-3339</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +84,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -134,7 +107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,13 +125,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,155 +451,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7847E2FF-BAFB-4C20-8299-126226FFA59F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19DBB0E-26C4-48D9-8892-A0C97660820A}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3">
-        <v>130</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4729D68A-8212-4ED2-B226-97EB3107B001}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{B3761546-CC13-4A30-8172-0ECD7E797555}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{03876B13-540F-45A7-B448-50E8F30F4252}"/>
-    <hyperlink ref="C5:C9" r:id="rId4" display="ap2@g.com" xr:uid="{171BF073-7C52-472E-A2B8-053FB96FC368}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{9DB63C43-A3DC-4418-82F1-D012FF033272}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{D8B5B7DB-5293-42D9-9D1E-215D3794E5D9}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{FC63B450-9273-4942-B1D3-533FF79CB8EE}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{5D2064C0-B18F-4B90-835E-D766BCAFBB69}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{A8E46650-EA38-44F8-9918-71A035D518AB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{8B61AB97-C59F-4A75-BB03-57A910EDBB6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{D1712989-89F3-4252-B1EB-99AD06085025}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="5895" activeTab="1" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
@@ -14,7 +14,7 @@
   <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1:P17"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>accounts</t>
   </si>
@@ -36,39 +36,23 @@
     <t>AP319-86</t>
   </si>
   <si>
-    <t>AP266-3333</t>
-  </si>
-  <si>
-    <t>AP266-3339</t>
-  </si>
-  <si>
-    <t>AP268-125</t>
-  </si>
-  <si>
-    <t>AP270-470</t>
-  </si>
-  <si>
-    <t>Mobile responsive is visible for AP266-3333true</t>
-  </si>
-  <si>
-    <t>Mobile responsive is visible for AP268-125true</t>
-  </si>
-  <si>
-    <t>Mobile responsive is visible for AP266-3339true</t>
-  </si>
-  <si>
-    <t>Mobile responsive is visible for AP266-3339false</t>
-  </si>
-  <si>
-    <t>Packages and Text_Reminder is not EnabledAP266-3339</t>
+    <t>AP334-10</t>
+  </si>
+  <si>
+    <t>AP334-193</t>
+  </si>
+  <si>
+    <t>AP334-328</t>
+  </si>
+  <si>
+    <t>AP337-463</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,10 +441,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,15 +505,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19DBB0E-26C4-48D9-8892-A0C97660820A}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,17 +525,11 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -563,6 +541,12 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{D1712989-89F3-4252-B1EB-99AD06085025}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{503E70A1-B813-4B39-BA1E-24B97DEF27D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="5895" activeTab="1" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
@@ -508,12 +508,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{503E70A1-B813-4B39-BA1E-24B97DEF27D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{AD3A41E0-D7EA-4279-8FBB-A11FFE95B444}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="5895" activeTab="1" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>accounts</t>
   </si>
@@ -36,6 +36,18 @@
     <t>AP319-86</t>
   </si>
   <si>
+    <t>AP326-707</t>
+  </si>
+  <si>
+    <t>AP326-748</t>
+  </si>
+  <si>
+    <t>AP328-269</t>
+  </si>
+  <si>
+    <t>AP328-313</t>
+  </si>
+  <si>
     <t>AP334-10</t>
   </si>
   <si>
@@ -46,6 +58,12 @@
   </si>
   <si>
     <t>AP337-463</t>
+  </si>
+  <si>
+    <t>AP344-348</t>
+  </si>
+  <si>
+    <t>AP346-125</t>
   </si>
 </sst>
 </file>
@@ -508,7 +526,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,12 +560,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/testdata/Test.xlsx
+++ b/src/main/java/com/testdata/Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{AD3A41E0-D7EA-4279-8FBB-A11FFE95B444}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{3E0CFD9F-12E3-4020-BCE6-AB2F99205EF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="5895" activeTab="1" xr2:uid="{8FF49A41-D681-4C84-BD33-FF869755A9FC}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>accounts</t>
   </si>
@@ -36,34 +36,40 @@
     <t>AP319-86</t>
   </si>
   <si>
-    <t>AP326-707</t>
-  </si>
-  <si>
-    <t>AP326-748</t>
-  </si>
-  <si>
-    <t>AP328-269</t>
-  </si>
-  <si>
-    <t>AP328-313</t>
-  </si>
-  <si>
-    <t>AP334-10</t>
-  </si>
-  <si>
-    <t>AP334-193</t>
-  </si>
-  <si>
-    <t>AP334-328</t>
-  </si>
-  <si>
-    <t>AP337-463</t>
-  </si>
-  <si>
-    <t>AP344-348</t>
-  </si>
-  <si>
-    <t>AP346-125</t>
+    <t>AP355-276</t>
+  </si>
+  <si>
+    <t>AP356-176</t>
+  </si>
+  <si>
+    <t>AP356-213</t>
+  </si>
+  <si>
+    <t>AP356-411</t>
+  </si>
+  <si>
+    <t>AP357-51</t>
+  </si>
+  <si>
+    <t>AP357-86</t>
+  </si>
+  <si>
+    <t>AP358-347</t>
+  </si>
+  <si>
+    <t>AP358-98</t>
+  </si>
+  <si>
+    <t>AP361-174</t>
+  </si>
+  <si>
+    <t>Mobile responsive is visible for AP358-347true</t>
+  </si>
+  <si>
+    <t>Packages and Text_Reminder is not Enabled     AP361-174</t>
+  </si>
+  <si>
+    <t>AP352-497</t>
   </si>
 </sst>
 </file>
@@ -526,13 +532,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,11 +550,17 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -587,7 +599,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
